--- a/model/Outputs/3. With PV/Summary.xlsx
+++ b/model/Outputs/3. With PV/Summary.xlsx
@@ -55,6 +55,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
